--- a/heliostrome/jip_project/results/sensitivity_Morocco_soil.xlsx
+++ b/heliostrome/jip_project/results/sensitivity_Morocco_soil.xlsx
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -790,7 +790,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -849,7 +849,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -967,7 +967,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -1146,13 +1146,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39265</v>
+        <v>39256</v>
       </c>
       <c r="E2" t="n">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6441581032116273</v>
+        <v>1.613541597166001</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -1179,7 +1179,7 @@
         <v>899</v>
       </c>
       <c r="F3" t="n">
-        <v>0.654324595900415</v>
+        <v>0.8277691421625728</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>39969</v>
+        <v>39970</v>
       </c>
       <c r="E4" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6285754681933774</v>
+        <v>0.6195984311343089</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -1233,7 +1233,7 @@
         <v>1642</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7984122036796524</v>
+        <v>0.8720716385892004</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -1260,7 +1260,7 @@
         <v>167</v>
       </c>
       <c r="F6" t="n">
-        <v>3.868077103807553e-05</v>
+        <v>0.0001548037028876791</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -1287,7 +1287,7 @@
         <v>549</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4866288030881235</v>
+        <v>0.4892087690648531</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -1314,7 +1314,7 @@
         <v>904</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1001347418967997</v>
+        <v>0.07576772713190799</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -1341,7 +1341,7 @@
         <v>1268</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1837274925653245</v>
+        <v>0.1834353395958283</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -1368,7 +1368,7 @@
         <v>1618</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3406149242574908</v>
+        <v>0.336995972491431</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -1395,7 +1395,7 @@
         <v>166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004712594805084074</v>
+        <v>0.005101390223966789</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -1422,7 +1422,7 @@
         <v>548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6384146156961376</v>
+        <v>0.6402793350691705</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -1449,7 +1449,7 @@
         <v>902</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3313574463725584</v>
+        <v>0.3366215400551394</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -1476,7 +1476,7 @@
         <v>1266</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4142424948825596</v>
+        <v>0.4125511698416093</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -1503,7 +1503,7 @@
         <v>1617</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2190953820562438</v>
+        <v>0.2230360297999564</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -1530,7 +1530,7 @@
         <v>520</v>
       </c>
       <c r="F16" t="n">
-        <v>3.878372395263098</v>
+        <v>3.873986584714737</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -1557,7 +1557,7 @@
         <v>885</v>
       </c>
       <c r="F17" t="n">
-        <v>3.421879914988244</v>
+        <v>3.421208468815861</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -1584,7 +1584,7 @@
         <v>1251</v>
       </c>
       <c r="F18" t="n">
-        <v>4.258850470158119</v>
+        <v>4.24927383709921</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -1611,7 +1611,7 @@
         <v>1616</v>
       </c>
       <c r="F19" t="n">
-        <v>4.623407857991251</v>
+        <v>4.620495941994386</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -1638,7 +1638,7 @@
         <v>520</v>
       </c>
       <c r="F20" t="n">
-        <v>3.83372863665587</v>
+        <v>3.832991485095026</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -1665,7 +1665,7 @@
         <v>885</v>
       </c>
       <c r="F21" t="n">
-        <v>2.387527343998526</v>
+        <v>2.328122342575167</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -1692,7 +1692,7 @@
         <v>1251</v>
       </c>
       <c r="F22" t="n">
-        <v>4.095161528131526</v>
+        <v>4.119872138519833</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -1719,7 +1719,7 @@
         <v>1616</v>
       </c>
       <c r="F23" t="n">
-        <v>4.343900307028576</v>
+        <v>4.33715329770739</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -1746,7 +1746,7 @@
         <v>538</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9312597574188282</v>
+        <v>0.9323959169878264</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -1773,7 +1773,7 @@
         <v>896</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3416627837598388</v>
+        <v>0.3438122033889843</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -1800,7 +1800,7 @@
         <v>1251</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1757193603962066</v>
+        <v>0.1760695703855218</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -1827,7 +1827,7 @@
         <v>1640</v>
       </c>
       <c r="F27" t="n">
-        <v>0.597010191534697</v>
+        <v>0.5971537322251388</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -1962,7 +1962,7 @@
         <v>537</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5977997688716126</v>
+        <v>0.5979216517399192</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -1989,7 +1989,7 @@
         <v>866</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3101510120335748</v>
+        <v>0.3074130293856289</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -2016,7 +2016,7 @@
         <v>1251</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3018940087515236</v>
+        <v>0.3031530968428973</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -2043,7 +2043,7 @@
         <v>1645</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1459753167178534</v>
+        <v>0.1421197712926602</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -2064,13 +2064,13 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>39262</v>
+        <v>39256</v>
       </c>
       <c r="E36" t="n">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3444549857621247</v>
+        <v>0.4394553466411942</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -2091,13 +2091,13 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>39619</v>
+        <v>39613</v>
       </c>
       <c r="E37" t="n">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04137878560375754</v>
+        <v>0.2648810353468162</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>39969</v>
+        <v>39970</v>
       </c>
       <c r="E38" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2951008282740563</v>
+        <v>0.3298254824154693</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -2145,13 +2145,13 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40359</v>
+        <v>40360</v>
       </c>
       <c r="E39" t="n">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01851581140951365</v>
+        <v>0.06992054085145638</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -2260,10 +2260,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -2378,10 +2378,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -2499,7 +2499,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -2558,7 +2558,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -2676,7 +2676,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -2855,13 +2855,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39231</v>
+        <v>39233</v>
       </c>
       <c r="E2" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7265315184639632</v>
+        <v>0.8917371452845114</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -2882,13 +2882,13 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>39590</v>
+        <v>39589</v>
       </c>
       <c r="E3" t="n">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4924923619295982</v>
+        <v>0.6296093474897917</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -2915,7 +2915,7 @@
         <v>1238</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8468799493698046</v>
+        <v>0.8716654793087316</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>40328</v>
+        <v>40332</v>
       </c>
       <c r="E5" t="n">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="F5" t="n">
-        <v>0.63497902774374</v>
+        <v>0.5650208497912843</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -2969,7 +2969,7 @@
         <v>155</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1493426385314613</v>
+        <v>0.1554629940335567</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -2996,7 +2996,7 @@
         <v>546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5714440833187422</v>
+        <v>0.56732193657295</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -3023,7 +3023,7 @@
         <v>887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4470402865865323</v>
+        <v>0.4465393140916435</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -3050,7 +3050,7 @@
         <v>1250</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2250779758495008</v>
+        <v>0.2244476656494053</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -3077,7 +3077,7 @@
         <v>1619</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4503108867840422</v>
+        <v>0.448791051793868</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -3104,7 +3104,7 @@
         <v>150</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08421887497499561</v>
+        <v>0.08414432995975367</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -3131,7 +3131,7 @@
         <v>545</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8771931833031456</v>
+        <v>0.8758329320170045</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -3158,7 +3158,7 @@
         <v>884</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1844850164289379</v>
+        <v>0.1843084908522198</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -3185,7 +3185,7 @@
         <v>1244</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09571733378473836</v>
+        <v>0.09562601638945178</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -3212,7 +3212,7 @@
         <v>1615</v>
       </c>
       <c r="F15" t="n">
-        <v>0.168968222740935</v>
+        <v>0.168662611889062</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -3239,7 +3239,7 @@
         <v>520</v>
       </c>
       <c r="F16" t="n">
-        <v>3.715249940840349</v>
+        <v>3.71281222948231</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -3266,7 +3266,7 @@
         <v>885</v>
       </c>
       <c r="F17" t="n">
-        <v>3.769411802511581</v>
+        <v>3.765702650630953</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -3293,7 +3293,7 @@
         <v>1251</v>
       </c>
       <c r="F18" t="n">
-        <v>5.256069480866927</v>
+        <v>5.260277808666439</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -3320,7 +3320,7 @@
         <v>1616</v>
       </c>
       <c r="F19" t="n">
-        <v>5.547918720259833</v>
+        <v>5.548795577615436</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -3347,7 +3347,7 @@
         <v>520</v>
       </c>
       <c r="F20" t="n">
-        <v>3.786786299466077</v>
+        <v>3.785233247691251</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -3374,7 +3374,7 @@
         <v>885</v>
       </c>
       <c r="F21" t="n">
-        <v>3.870255147770594</v>
+        <v>3.866353794379847</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -3401,7 +3401,7 @@
         <v>1251</v>
       </c>
       <c r="F22" t="n">
-        <v>2.120783401396742</v>
+        <v>2.125085849622579</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -3428,7 +3428,7 @@
         <v>1616</v>
       </c>
       <c r="F23" t="n">
-        <v>2.439227703790822</v>
+        <v>2.441071260197281</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -3455,7 +3455,7 @@
         <v>544</v>
       </c>
       <c r="F24" t="n">
-        <v>2.608510943450285</v>
+        <v>2.608285782716256</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -3482,7 +3482,7 @@
         <v>909</v>
       </c>
       <c r="F25" t="n">
-        <v>2.746128677239216</v>
+        <v>2.746215510579826</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -3509,7 +3509,7 @@
         <v>1275</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8282369731103586</v>
+        <v>0.8276921532010024</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -3536,7 +3536,7 @@
         <v>1640</v>
       </c>
       <c r="F27" t="n">
-        <v>2.781404612726763</v>
+        <v>2.781058541760644</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -3671,7 +3671,7 @@
         <v>549</v>
       </c>
       <c r="F32" t="n">
-        <v>2.665452370926162</v>
+        <v>2.664836134962602</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -3698,7 +3698,7 @@
         <v>914</v>
       </c>
       <c r="F33" t="n">
-        <v>2.783782686593254</v>
+        <v>2.782366943547157</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -3725,7 +3725,7 @@
         <v>1280</v>
       </c>
       <c r="F34" t="n">
-        <v>2.938391211412329</v>
+        <v>2.939523171717856</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -3752,7 +3752,7 @@
         <v>1645</v>
       </c>
       <c r="F35" t="n">
-        <v>3.081506249206321</v>
+        <v>3.082185537115505</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -3779,7 +3779,7 @@
         <v>553</v>
       </c>
       <c r="F36" t="n">
-        <v>2.518110586489307</v>
+        <v>2.535494073525885</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -3806,7 +3806,7 @@
         <v>918</v>
       </c>
       <c r="F37" t="n">
-        <v>2.673286625876981</v>
+        <v>2.698278434530623</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -3833,7 +3833,7 @@
         <v>1284</v>
       </c>
       <c r="F38" t="n">
-        <v>2.77645523754554</v>
+        <v>2.774452267428331</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -3860,7 +3860,7 @@
         <v>1649</v>
       </c>
       <c r="F39" t="n">
-        <v>2.839130979500637</v>
+        <v>2.856493513966185</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -3969,10 +3969,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -4028,10 +4028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -4087,10 +4087,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -4208,7 +4208,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -4267,7 +4267,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -4385,7 +4385,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -4441,10 +4441,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -4564,13 +4564,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39232</v>
+        <v>39234</v>
       </c>
       <c r="E2" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F2" t="n">
-        <v>1.029483620858859</v>
+        <v>1.179003828261651</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -4591,13 +4591,13 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>39591</v>
+        <v>39589</v>
       </c>
       <c r="E3" t="n">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7167053539233686</v>
+        <v>0.7075977566941914</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -4624,7 +4624,7 @@
         <v>1238</v>
       </c>
       <c r="F4" t="n">
-        <v>1.079814557382494</v>
+        <v>1.062317133145724</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -4645,13 +4645,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>40328</v>
+        <v>40332</v>
       </c>
       <c r="E5" t="n">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9048982151033725</v>
+        <v>0.7942202625217091</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -4678,7 +4678,7 @@
         <v>155</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2905820520928198</v>
+        <v>0.2913560642914877</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -4705,7 +4705,7 @@
         <v>546</v>
       </c>
       <c r="F7" t="n">
-        <v>1.09968181535861</v>
+        <v>1.099144963408775</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -4732,7 +4732,7 @@
         <v>888</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5201363131128287</v>
+        <v>0.5191334882204208</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -4759,7 +4759,7 @@
         <v>1251</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3442240196295367</v>
+        <v>0.3441701214405171</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -4786,7 +4786,7 @@
         <v>1619</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5826350825293518</v>
+        <v>0.5833648930598325</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -4813,7 +4813,7 @@
         <v>152</v>
       </c>
       <c r="F11" t="n">
-        <v>0.138246580905371</v>
+        <v>0.13839979673958</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -4840,7 +4840,7 @@
         <v>546</v>
       </c>
       <c r="F12" t="n">
-        <v>1.192011326072945</v>
+        <v>1.192765745515161</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -4867,7 +4867,7 @@
         <v>885</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2211946047151948</v>
+        <v>0.2210430946951399</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -4894,7 +4894,7 @@
         <v>1245</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1175575967402051</v>
+        <v>0.1174127900182882</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -4921,7 +4921,7 @@
         <v>1616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2406451466400257</v>
+        <v>0.2405778991200914</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -4948,7 +4948,7 @@
         <v>516</v>
       </c>
       <c r="F16" t="n">
-        <v>3.868533127715588</v>
+        <v>3.866365828468576</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -4975,7 +4975,7 @@
         <v>868</v>
       </c>
       <c r="F17" t="n">
-        <v>2.842655727664757</v>
+        <v>2.840587163368413</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -5002,7 +5002,7 @@
         <v>1236</v>
       </c>
       <c r="F18" t="n">
-        <v>4.235548723685785</v>
+        <v>4.234021970517011</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -5029,7 +5029,7 @@
         <v>1614</v>
       </c>
       <c r="F19" t="n">
-        <v>5.119276652045821</v>
+        <v>5.109908031038985</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -5056,7 +5056,7 @@
         <v>516</v>
       </c>
       <c r="F20" t="n">
-        <v>3.861652907200121</v>
+        <v>3.859075680062004</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -5083,7 +5083,7 @@
         <v>868</v>
       </c>
       <c r="F21" t="n">
-        <v>2.893592614852955</v>
+        <v>2.890885789958323</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -5110,7 +5110,7 @@
         <v>1236</v>
       </c>
       <c r="F22" t="n">
-        <v>4.077036346161869</v>
+        <v>4.082815796907836</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -5137,7 +5137,7 @@
         <v>1614</v>
       </c>
       <c r="F23" t="n">
-        <v>4.966377417252106</v>
+        <v>4.96535192623984</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -5164,7 +5164,7 @@
         <v>515</v>
       </c>
       <c r="F24" t="n">
-        <v>1.586277306041997</v>
+        <v>1.586353367431668</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -5191,7 +5191,7 @@
         <v>868</v>
       </c>
       <c r="F25" t="n">
-        <v>0.826413082393561</v>
+        <v>0.8259357066111317</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -5218,7 +5218,7 @@
         <v>1236</v>
       </c>
       <c r="F26" t="n">
-        <v>1.314643266995553</v>
+        <v>1.314747740349682</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -5245,7 +5245,7 @@
         <v>1614</v>
       </c>
       <c r="F27" t="n">
-        <v>1.818879371484774</v>
+        <v>1.81988191280017</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -5380,7 +5380,7 @@
         <v>515</v>
       </c>
       <c r="F32" t="n">
-        <v>1.203072462989809</v>
+        <v>1.202601750786587</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -5407,7 +5407,7 @@
         <v>868</v>
       </c>
       <c r="F33" t="n">
-        <v>0.583918215970388</v>
+        <v>0.5833784117641211</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -5434,7 +5434,7 @@
         <v>1237</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9397818112854116</v>
+        <v>0.9394585378444512</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -5461,7 +5461,7 @@
         <v>1597</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5706690815232963</v>
+        <v>0.5728956385224033</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -5482,13 +5482,13 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>39233</v>
+        <v>39234</v>
       </c>
       <c r="E36" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9195034505264338</v>
+        <v>0.9828622084801557</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>39586</v>
+        <v>39588</v>
       </c>
       <c r="E37" t="n">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3349900700431962</v>
+        <v>0.4406762412201976</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -5536,13 +5536,13 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>39958</v>
+        <v>39959</v>
       </c>
       <c r="E38" t="n">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8538067758141056</v>
+        <v>0.8660722703690809</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -5563,13 +5563,13 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40315</v>
+        <v>40317</v>
       </c>
       <c r="E39" t="n">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3202816769711436</v>
+        <v>0.3953570038524238</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -5678,10 +5678,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -5737,10 +5737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -5796,10 +5796,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -5855,10 +5855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -5917,7 +5917,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -5976,7 +5976,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -6094,7 +6094,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -6150,10 +6150,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -6273,13 +6273,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39265</v>
+        <v>39255</v>
       </c>
       <c r="E2" t="n">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F2" t="n">
-        <v>1.822167817016197</v>
+        <v>2.253553900452206</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -6300,13 +6300,13 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>39592</v>
+        <v>39590</v>
       </c>
       <c r="E3" t="n">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8669498769488495</v>
+        <v>0.8346350421781863</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>39957</v>
+        <v>39958</v>
       </c>
       <c r="E4" t="n">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F4" t="n">
-        <v>1.233108167348154</v>
+        <v>1.216614270667855</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -6360,7 +6360,7 @@
         <v>1642</v>
       </c>
       <c r="F5" t="n">
-        <v>1.234523953359037</v>
+        <v>1.352062787493068</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -6387,7 +6387,7 @@
         <v>156</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3654373914463266</v>
+        <v>0.3648776563766731</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -6414,7 +6414,7 @@
         <v>547</v>
       </c>
       <c r="F7" t="n">
-        <v>1.753256874908353</v>
+        <v>1.753378983850035</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -6441,7 +6441,7 @@
         <v>903</v>
       </c>
       <c r="F8" t="n">
-        <v>1.251789449825262</v>
+        <v>1.245307062634065</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -6468,7 +6468,7 @@
         <v>1269</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8645054668414892</v>
+        <v>0.8602663501184878</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -6495,7 +6495,7 @@
         <v>1619</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6283189285562835</v>
+        <v>0.6275267709442442</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -6522,7 +6522,7 @@
         <v>153</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1804112407423637</v>
+        <v>0.1802615945892077</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -6549,7 +6549,7 @@
         <v>547</v>
       </c>
       <c r="F12" t="n">
-        <v>1.485806945725972</v>
+        <v>1.484888818955229</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -6576,7 +6576,7 @@
         <v>901</v>
       </c>
       <c r="F13" t="n">
-        <v>0.892275560406767</v>
+        <v>0.8910059425049908</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -6603,7 +6603,7 @@
         <v>1267</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8403752289375033</v>
+        <v>0.8400104928458866</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -6630,7 +6630,7 @@
         <v>1616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2759169369323929</v>
+        <v>0.2756947718466622</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -6657,7 +6657,7 @@
         <v>520</v>
       </c>
       <c r="F16" t="n">
-        <v>4.450939556244543</v>
+        <v>4.447996203887715</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -6684,7 +6684,7 @@
         <v>870</v>
       </c>
       <c r="F17" t="n">
-        <v>3.249653542842888</v>
+        <v>3.247650576989339</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -6711,7 +6711,7 @@
         <v>1238</v>
       </c>
       <c r="F18" t="n">
-        <v>4.318450036951885</v>
+        <v>4.318544820472104</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -6738,7 +6738,7 @@
         <v>1616</v>
       </c>
       <c r="F19" t="n">
-        <v>5.32849852013435</v>
+        <v>5.327862314187089</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -6765,7 +6765,7 @@
         <v>520</v>
       </c>
       <c r="F20" t="n">
-        <v>4.445272324481803</v>
+        <v>4.440379884131509</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -6792,7 +6792,7 @@
         <v>869</v>
       </c>
       <c r="F21" t="n">
-        <v>3.087052825892944</v>
+        <v>3.085276629143893</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -6819,7 +6819,7 @@
         <v>1237</v>
       </c>
       <c r="F22" t="n">
-        <v>4.171737170154854</v>
+        <v>4.173535237392867</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -6846,7 +6846,7 @@
         <v>1616</v>
       </c>
       <c r="F23" t="n">
-        <v>5.15884308321826</v>
+        <v>5.160575332279899</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -6873,7 +6873,7 @@
         <v>536</v>
       </c>
       <c r="F24" t="n">
-        <v>2.269234073756375</v>
+        <v>2.269964479692463</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -6900,7 +6900,7 @@
         <v>869</v>
       </c>
       <c r="F25" t="n">
-        <v>1.038956430771218</v>
+        <v>1.039081434500098</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -6927,7 +6927,7 @@
         <v>1236</v>
       </c>
       <c r="F26" t="n">
-        <v>1.311429166087781</v>
+        <v>1.310619497322588</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -6954,7 +6954,7 @@
         <v>1640</v>
       </c>
       <c r="F27" t="n">
-        <v>2.003650271386958</v>
+        <v>2.005042580397709</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -7089,7 +7089,7 @@
         <v>536</v>
       </c>
       <c r="F32" t="n">
-        <v>1.997844842045228</v>
+        <v>1.998159629419178</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -7116,7 +7116,7 @@
         <v>869</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6811362770171377</v>
+        <v>0.6803088002654565</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -7143,7 +7143,7 @@
         <v>1238</v>
       </c>
       <c r="F34" t="n">
-        <v>1.021352790261392</v>
+        <v>1.021028416130719</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -7170,7 +7170,7 @@
         <v>1645</v>
       </c>
       <c r="F35" t="n">
-        <v>1.105996946179471</v>
+        <v>1.101102540986138</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -7191,13 +7191,13 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>39235</v>
+        <v>39255</v>
       </c>
       <c r="E36" t="n">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="F36" t="n">
-        <v>1.079878652864992</v>
+        <v>1.628543510221387</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -7218,13 +7218,13 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>39587</v>
+        <v>39588</v>
       </c>
       <c r="E37" t="n">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3972734951404542</v>
+        <v>0.5121227530821738</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -7245,13 +7245,13 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>39959</v>
+        <v>39960</v>
       </c>
       <c r="E38" t="n">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8716400364595853</v>
+        <v>0.937379161694563</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40357</v>
+        <v>40359</v>
       </c>
       <c r="E39" t="n">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8870057651181344</v>
+        <v>0.8564979530072248</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -7446,10 +7446,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -7564,10 +7564,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -7626,7 +7626,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -7685,7 +7685,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -7803,7 +7803,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -7859,10 +7859,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -7982,13 +7982,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39237</v>
+        <v>39238</v>
       </c>
       <c r="E2" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F2" t="n">
-        <v>2.646050163016073</v>
+        <v>2.737651320578792</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -8015,7 +8015,7 @@
         <v>876</v>
       </c>
       <c r="F3" t="n">
-        <v>1.833854669391813</v>
+        <v>1.86192643058286</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>39971</v>
+        <v>39970</v>
       </c>
       <c r="E4" t="n">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F4" t="n">
-        <v>3.169692270116857</v>
+        <v>3.169060598780506</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -8063,13 +8063,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>40332</v>
+        <v>40334</v>
       </c>
       <c r="E5" t="n">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="F5" t="n">
-        <v>2.863697917120767</v>
+        <v>3.10936351562864</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -8096,7 +8096,7 @@
         <v>162</v>
       </c>
       <c r="F6" t="n">
-        <v>1.124575956878094</v>
+        <v>1.123505990978447</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -8123,7 +8123,7 @@
         <v>551</v>
       </c>
       <c r="F7" t="n">
-        <v>3.350852808042008</v>
+        <v>3.35133512510162</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -8144,13 +8144,13 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>39258</v>
+        <v>39257</v>
       </c>
       <c r="E8" t="n">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F8" t="n">
-        <v>2.400279217851805</v>
+        <v>2.400976495475778</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -8177,7 +8177,7 @@
         <v>1259</v>
       </c>
       <c r="F9" t="n">
-        <v>1.384270326622568</v>
+        <v>1.381976938659892</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -8204,7 +8204,7 @@
         <v>1635</v>
       </c>
       <c r="F10" t="n">
-        <v>2.492538800602935</v>
+        <v>2.490896610200123</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -8231,7 +8231,7 @@
         <v>160</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6090382691895423</v>
+        <v>0.6087070972820783</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -8258,7 +8258,7 @@
         <v>551</v>
       </c>
       <c r="F12" t="n">
-        <v>2.882185746340368</v>
+        <v>2.880592269077067</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -8285,7 +8285,7 @@
         <v>899</v>
       </c>
       <c r="F13" t="n">
-        <v>1.549022567600687</v>
+        <v>1.547627052169742</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -8312,7 +8312,7 @@
         <v>1257</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7963240839594954</v>
+        <v>0.7955169125601673</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -8339,7 +8339,7 @@
         <v>1633</v>
       </c>
       <c r="F15" t="n">
-        <v>1.80903497044794</v>
+        <v>1.807882982255577</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -8366,7 +8366,7 @@
         <v>519</v>
       </c>
       <c r="F16" t="n">
-        <v>6.424634253941679</v>
+        <v>6.421537861715256</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -8393,7 +8393,7 @@
         <v>873</v>
       </c>
       <c r="F17" t="n">
-        <v>5.165985446986619</v>
+        <v>5.163604926472952</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -8420,7 +8420,7 @@
         <v>1251</v>
       </c>
       <c r="F18" t="n">
-        <v>7.547151145984841</v>
+        <v>7.54634316961457</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -8447,7 +8447,7 @@
         <v>1616</v>
       </c>
       <c r="F19" t="n">
-        <v>7.848994041382094</v>
+        <v>7.848303548277457</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -8474,7 +8474,7 @@
         <v>519</v>
       </c>
       <c r="F20" t="n">
-        <v>6.388441566341967</v>
+        <v>6.384840954767889</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -8501,7 +8501,7 @@
         <v>873</v>
       </c>
       <c r="F21" t="n">
-        <v>5.182233809698637</v>
+        <v>5.179642219818415</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -8528,7 +8528,7 @@
         <v>1251</v>
       </c>
       <c r="F22" t="n">
-        <v>7.466203559405074</v>
+        <v>7.465461328663709</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -8555,7 +8555,7 @@
         <v>1616</v>
       </c>
       <c r="F23" t="n">
-        <v>7.679490702795402</v>
+        <v>7.676316313165778</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -8582,7 +8582,7 @@
         <v>522</v>
       </c>
       <c r="F24" t="n">
-        <v>3.536163592908827</v>
+        <v>3.53645032290535</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -8609,7 +8609,7 @@
         <v>879</v>
       </c>
       <c r="F25" t="n">
-        <v>2.595030001146044</v>
+        <v>2.595163985058765</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -8636,7 +8636,7 @@
         <v>1257</v>
       </c>
       <c r="F26" t="n">
-        <v>4.216394622242619</v>
+        <v>4.216520296841667</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -8663,7 +8663,7 @@
         <v>1619</v>
       </c>
       <c r="F27" t="n">
-        <v>3.806944360212795</v>
+        <v>3.807052937062334</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -8798,7 +8798,7 @@
         <v>523</v>
       </c>
       <c r="F32" t="n">
-        <v>3.021836765437873</v>
+        <v>3.020852618955666</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -8825,7 +8825,7 @@
         <v>880</v>
       </c>
       <c r="F33" t="n">
-        <v>2.14809334456021</v>
+        <v>2.146953171240179</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -8852,7 +8852,7 @@
         <v>1257</v>
       </c>
       <c r="F34" t="n">
-        <v>3.591581674875691</v>
+        <v>3.590668807017136</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -8879,7 +8879,7 @@
         <v>1618</v>
       </c>
       <c r="F35" t="n">
-        <v>3.114952428759684</v>
+        <v>3.11443669850441</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -8906,7 +8906,7 @@
         <v>524</v>
       </c>
       <c r="F36" t="n">
-        <v>2.664677152764509</v>
+        <v>2.686326774386278</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -8927,13 +8927,13 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>39601</v>
+        <v>39602</v>
       </c>
       <c r="E37" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F37" t="n">
-        <v>1.929167818704495</v>
+        <v>2.062304600177195</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -8954,13 +8954,13 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>39978</v>
+        <v>39979</v>
       </c>
       <c r="E38" t="n">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="F38" t="n">
-        <v>3.202765696108529</v>
+        <v>3.331333374078998</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -8981,13 +8981,13 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40336</v>
+        <v>40338</v>
       </c>
       <c r="E39" t="n">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="F39" t="n">
-        <v>2.41438278782102</v>
+        <v>2.646244693732993</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -9096,10 +9096,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -9155,10 +9155,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -9273,10 +9273,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -9335,7 +9335,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -9394,7 +9394,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -9512,7 +9512,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -9568,10 +9568,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -9691,13 +9691,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39232</v>
+        <v>39233</v>
       </c>
       <c r="E2" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F2" t="n">
-        <v>1.078093881892989</v>
+        <v>1.220823748040875</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -9724,7 +9724,7 @@
         <v>869</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6685169477860973</v>
+        <v>0.7095613371206414</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -9745,13 +9745,13 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>39963</v>
+        <v>39958</v>
       </c>
       <c r="E4" t="n">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="F4" t="n">
-        <v>1.53810176774813</v>
+        <v>1.285069403531467</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -9772,13 +9772,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>40330</v>
+        <v>40334</v>
       </c>
       <c r="E5" t="n">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="F5" t="n">
-        <v>1.391724114136652</v>
+        <v>1.415029944707679</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -9805,7 +9805,7 @@
         <v>154</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2869215860685743</v>
+        <v>0.2802351613342687</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -9832,7 +9832,7 @@
         <v>521</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4239922467775485</v>
+        <v>0.3822857321207234</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -9859,7 +9859,7 @@
         <v>887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4968191878589864</v>
+        <v>0.4964013917991135</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -9886,7 +9886,7 @@
         <v>1249</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3102433790206336</v>
+        <v>0.3110152521401796</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -9907,13 +9907,13 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>39985</v>
+        <v>39984</v>
       </c>
       <c r="E10" t="n">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="F10" t="n">
-        <v>1.207936770349451</v>
+        <v>1.202414318668763</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -9940,7 +9940,7 @@
         <v>149</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1051108098889124</v>
+        <v>0.1056448495210376</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -9967,7 +9967,7 @@
         <v>520</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2395165693737857</v>
+        <v>0.2401270177857958</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -9994,7 +9994,7 @@
         <v>885</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2284713276692194</v>
+        <v>0.228197165130062</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -10021,7 +10021,7 @@
         <v>1244</v>
       </c>
       <c r="F14" t="n">
-        <v>0.110815688147951</v>
+        <v>0.1107301669204431</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -10048,7 +10048,7 @@
         <v>1615</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2377947814035979</v>
+        <v>0.2362717243581156</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -10075,7 +10075,7 @@
         <v>520</v>
       </c>
       <c r="F16" t="n">
-        <v>3.916989605138376</v>
+        <v>3.917785334331889</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -10102,7 +10102,7 @@
         <v>885</v>
       </c>
       <c r="F17" t="n">
-        <v>3.965548369606923</v>
+        <v>3.961414496067073</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -10129,7 +10129,7 @@
         <v>1251</v>
       </c>
       <c r="F18" t="n">
-        <v>2.362222810334879</v>
+        <v>2.363753862805387</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -10156,7 +10156,7 @@
         <v>1616</v>
       </c>
       <c r="F19" t="n">
-        <v>3.291764958596093</v>
+        <v>3.340165729325673</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -10183,7 +10183,7 @@
         <v>520</v>
       </c>
       <c r="F20" t="n">
-        <v>3.998511909491789</v>
+        <v>3.999611004736829</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -10210,7 +10210,7 @@
         <v>885</v>
       </c>
       <c r="F21" t="n">
-        <v>4.048887293386808</v>
+        <v>4.053496425893728</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -10237,7 +10237,7 @@
         <v>1251</v>
       </c>
       <c r="F22" t="n">
-        <v>1.510622073465834</v>
+        <v>1.516327330912449</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -10264,7 +10264,7 @@
         <v>1616</v>
       </c>
       <c r="F23" t="n">
-        <v>1.966870626075194</v>
+        <v>1.970707953926072</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -10291,7 +10291,7 @@
         <v>544</v>
       </c>
       <c r="F24" t="n">
-        <v>1.889057482412357</v>
+        <v>1.888707458515753</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -10318,7 +10318,7 @@
         <v>909</v>
       </c>
       <c r="F25" t="n">
-        <v>2.449830104444999</v>
+        <v>2.449888004494794</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -10345,7 +10345,7 @@
         <v>1275</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6060442732921307</v>
+        <v>0.6055906451204638</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -10372,7 +10372,7 @@
         <v>1640</v>
       </c>
       <c r="F27" t="n">
-        <v>1.17224795021955</v>
+        <v>1.172007794756763</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -10507,7 +10507,7 @@
         <v>549</v>
       </c>
       <c r="F32" t="n">
-        <v>2.518062228288463</v>
+        <v>2.518984622445456</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -10534,7 +10534,7 @@
         <v>914</v>
       </c>
       <c r="F33" t="n">
-        <v>2.736015404716774</v>
+        <v>2.743286428957042</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -10561,7 +10561,7 @@
         <v>1280</v>
       </c>
       <c r="F34" t="n">
-        <v>1.730841087424133</v>
+        <v>1.735117757490022</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -10588,7 +10588,7 @@
         <v>1645</v>
       </c>
       <c r="F35" t="n">
-        <v>1.735130017542702</v>
+        <v>1.736282140176697</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -10615,7 +10615,7 @@
         <v>553</v>
       </c>
       <c r="F36" t="n">
-        <v>2.241464413594733</v>
+        <v>2.263517396376087</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -10642,7 +10642,7 @@
         <v>918</v>
       </c>
       <c r="F37" t="n">
-        <v>2.410380102680972</v>
+        <v>2.407610525251036</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -10669,7 +10669,7 @@
         <v>1284</v>
       </c>
       <c r="F38" t="n">
-        <v>1.369623325601271</v>
+        <v>1.41615648368109</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -10696,7 +10696,7 @@
         <v>1649</v>
       </c>
       <c r="F39" t="n">
-        <v>1.703810538323568</v>
+        <v>1.668071126541993</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -10773,13 +10773,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39230</v>
+        <v>39231</v>
       </c>
       <c r="E2" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1695626963342015</v>
+        <v>0.2301400920877482</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -10800,13 +10800,13 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>39584</v>
+        <v>39585</v>
       </c>
       <c r="E3" t="n">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1986965405480109</v>
+        <v>0.3066495072325036</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -10833,7 +10833,7 @@
         <v>1236</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2611027087000692</v>
+        <v>0.3953949849690895</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>40320</v>
+        <v>40321</v>
       </c>
       <c r="E5" t="n">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06350363104928931</v>
+        <v>0.0653164800278498</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -10887,7 +10887,7 @@
         <v>153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006587001437135557</v>
+        <v>0.001009963996664194</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -10914,7 +10914,7 @@
         <v>545</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02906919431346398</v>
+        <v>0.02846126227882383</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -10941,7 +10941,7 @@
         <v>884</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03964599068044399</v>
+        <v>0.0368347738198099</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -10968,7 +10968,7 @@
         <v>1247</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004141888774043361</v>
+        <v>0.004186396004984376</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -10995,7 +10995,7 @@
         <v>1617</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001602068649190796</v>
+        <v>0.001572378668019082</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -11049,7 +11049,7 @@
         <v>544</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1481392801724808</v>
+        <v>0.1499533479288563</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -11076,7 +11076,7 @@
         <v>883</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1062981871070384</v>
+        <v>0.1062349035142076</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -11103,7 +11103,7 @@
         <v>1242</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04365545308813665</v>
+        <v>0.04364843589372436</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -11157,7 +11157,7 @@
         <v>512</v>
       </c>
       <c r="F16" t="n">
-        <v>2.128067588218292</v>
+        <v>2.152116923436802</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -11184,7 +11184,7 @@
         <v>866</v>
       </c>
       <c r="F17" t="n">
-        <v>1.915475088416815</v>
+        <v>1.909520998775985</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -11211,7 +11211,7 @@
         <v>1234</v>
       </c>
       <c r="F18" t="n">
-        <v>2.913029527385108</v>
+        <v>2.907440410710629</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -11238,7 +11238,7 @@
         <v>1613</v>
       </c>
       <c r="F19" t="n">
-        <v>2.679766855082851</v>
+        <v>2.681600168666975</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -11265,7 +11265,7 @@
         <v>513</v>
       </c>
       <c r="F20" t="n">
-        <v>2.074752309086549</v>
+        <v>2.071705585220402</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -11292,7 +11292,7 @@
         <v>865</v>
       </c>
       <c r="F21" t="n">
-        <v>1.986160293864883</v>
+        <v>1.987942677475192</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -11319,7 +11319,7 @@
         <v>1233</v>
       </c>
       <c r="F22" t="n">
-        <v>2.903612198971512</v>
+        <v>2.900079530526758</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -11346,7 +11346,7 @@
         <v>1613</v>
       </c>
       <c r="F23" t="n">
-        <v>2.395507830096601</v>
+        <v>2.393918568839094</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -11373,7 +11373,7 @@
         <v>512</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5416677692446372</v>
+        <v>0.5416421576399529</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -11400,7 +11400,7 @@
         <v>867</v>
       </c>
       <c r="F25" t="n">
-        <v>8.44037696417383e-06</v>
+        <v>8.441259404575171e-06</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -11427,7 +11427,7 @@
         <v>1229</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4334510116012854</v>
+        <v>0.4337282418756234</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -11454,7 +11454,7 @@
         <v>1591</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1751383371681247</v>
+        <v>0.1751321897044297</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -11589,7 +11589,7 @@
         <v>513</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1243824248671815</v>
+        <v>0.1251766932112872</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -11616,7 +11616,7 @@
         <v>866</v>
       </c>
       <c r="F33" t="n">
-        <v>0.009809975525253088</v>
+        <v>0.0098758829854228</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -11643,7 +11643,7 @@
         <v>1233</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3808325002888878</v>
+        <v>0.397512317205052</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -11670,7 +11670,7 @@
         <v>1592</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005092510494592048</v>
+        <v>0.005098550888254975</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -11691,13 +11691,13 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>39231</v>
+        <v>39232</v>
       </c>
       <c r="E36" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05618949742727824</v>
+        <v>0.04345356491244168</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -11718,13 +11718,13 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>39579</v>
+        <v>39585</v>
       </c>
       <c r="E37" t="n">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0005915863168175017</v>
+        <v>0.0002067990300471229</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -11751,7 +11751,7 @@
         <v>1234</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2692843727865662</v>
+        <v>0.275511930243682</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -11778,7 +11778,7 @@
         <v>1592</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0009757299339151471</v>
+        <v>0.0004100557750741334</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -11887,10 +11887,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -11946,10 +11946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -12005,10 +12005,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -12064,10 +12064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -12126,7 +12126,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -12185,7 +12185,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -12303,7 +12303,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -12359,10 +12359,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -12482,13 +12482,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39234</v>
+        <v>39236</v>
       </c>
       <c r="E2" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F2" t="n">
-        <v>1.918147198197537</v>
+        <v>2.099114061776337</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -12515,7 +12515,7 @@
         <v>873</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3861690763429</v>
+        <v>1.351209402721317</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -12542,7 +12542,7 @@
         <v>1245</v>
       </c>
       <c r="F4" t="n">
-        <v>2.350005716447078</v>
+        <v>2.257306501498752</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -12563,13 +12563,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>40330</v>
+        <v>40331</v>
       </c>
       <c r="E5" t="n">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="F5" t="n">
-        <v>2.272795862939845</v>
+        <v>2.387398164162547</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -12596,7 +12596,7 @@
         <v>158</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6352593890015941</v>
+        <v>0.6346026560783522</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -12623,7 +12623,7 @@
         <v>549</v>
       </c>
       <c r="F7" t="n">
-        <v>2.748117243420014</v>
+        <v>2.744581307542268</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -12650,7 +12650,7 @@
         <v>897</v>
       </c>
       <c r="F8" t="n">
-        <v>1.522653698090007</v>
+        <v>1.520114815472637</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -12677,7 +12677,7 @@
         <v>1253</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7550354236113599</v>
+        <v>0.7541810459559015</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -12704,7 +12704,7 @@
         <v>1628</v>
       </c>
       <c r="F10" t="n">
-        <v>1.6395360640972</v>
+        <v>1.637868524951616</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -12731,7 +12731,7 @@
         <v>155</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3113247483179166</v>
+        <v>0.3111564108345697</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -12758,7 +12758,7 @@
         <v>549</v>
       </c>
       <c r="F12" t="n">
-        <v>2.230063505902869</v>
+        <v>2.228970795844217</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -12785,7 +12785,7 @@
         <v>893</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8162461231139297</v>
+        <v>0.815392595265327</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -12812,7 +12812,7 @@
         <v>1251</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3704704848904172</v>
+        <v>0.3701522248907818</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -12839,7 +12839,7 @@
         <v>1626</v>
       </c>
       <c r="F15" t="n">
-        <v>1.033067900592951</v>
+        <v>1.03240655718506</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -12866,7 +12866,7 @@
         <v>517</v>
       </c>
       <c r="F16" t="n">
-        <v>5.595704454141009</v>
+        <v>5.592817344754552</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -12887,13 +12887,13 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>39590</v>
+        <v>39589</v>
       </c>
       <c r="E17" t="n">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F17" t="n">
-        <v>4.400403794976389</v>
+        <v>4.403929180203165</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -12920,7 +12920,7 @@
         <v>1248</v>
       </c>
       <c r="F18" t="n">
-        <v>6.757289765738688</v>
+        <v>6.635428000151506</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -12947,7 +12947,7 @@
         <v>1616</v>
       </c>
       <c r="F19" t="n">
-        <v>7.079946951726311</v>
+        <v>7.079411589311751</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -12974,7 +12974,7 @@
         <v>517</v>
       </c>
       <c r="F20" t="n">
-        <v>5.562878493989014</v>
+        <v>5.55944643379312</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -13001,7 +13001,7 @@
         <v>871</v>
       </c>
       <c r="F21" t="n">
-        <v>4.429661084642491</v>
+        <v>4.427325079220971</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -13028,7 +13028,7 @@
         <v>1247</v>
       </c>
       <c r="F22" t="n">
-        <v>6.560756588227415</v>
+        <v>6.558173907405746</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -13055,7 +13055,7 @@
         <v>1616</v>
       </c>
       <c r="F23" t="n">
-        <v>6.900630508420981</v>
+        <v>6.897193810989923</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -13082,7 +13082,7 @@
         <v>518</v>
       </c>
       <c r="F24" t="n">
-        <v>2.777599700282221</v>
+        <v>2.777940364413615</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -13109,7 +13109,7 @@
         <v>873</v>
       </c>
       <c r="F25" t="n">
-        <v>1.801365508681908</v>
+        <v>1.801646250138687</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -13136,7 +13136,7 @@
         <v>1250</v>
       </c>
       <c r="F26" t="n">
-        <v>3.10388118256469</v>
+        <v>3.103864588746046</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -13163,7 +13163,7 @@
         <v>1612</v>
       </c>
       <c r="F27" t="n">
-        <v>2.748043820057025</v>
+        <v>2.748060794770313</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -13298,7 +13298,7 @@
         <v>518</v>
       </c>
       <c r="F32" t="n">
-        <v>2.226600510375396</v>
+        <v>2.22523217176722</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -13325,7 +13325,7 @@
         <v>874</v>
       </c>
       <c r="F33" t="n">
-        <v>1.371363190728313</v>
+        <v>1.37035736666475</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -13352,7 +13352,7 @@
         <v>1250</v>
       </c>
       <c r="F34" t="n">
-        <v>2.600393299692539</v>
+        <v>2.600123067052236</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -13379,7 +13379,7 @@
         <v>1616</v>
       </c>
       <c r="F35" t="n">
-        <v>2.475841712807922</v>
+        <v>2.479546645855248</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -13400,13 +13400,13 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>39237</v>
+        <v>39238</v>
       </c>
       <c r="E36" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F36" t="n">
-        <v>1.817991725322752</v>
+        <v>1.921324969981961</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -13427,13 +13427,13 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>39594</v>
+        <v>39595</v>
       </c>
       <c r="E37" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F37" t="n">
-        <v>1.197528435811806</v>
+        <v>1.303789807247081</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -13460,7 +13460,7 @@
         <v>1253</v>
       </c>
       <c r="F38" t="n">
-        <v>2.374229934668904</v>
+        <v>2.393398355939685</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -13481,13 +13481,13 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40329</v>
+        <v>40331</v>
       </c>
       <c r="E39" t="n">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="F39" t="n">
-        <v>1.537464179799098</v>
+        <v>1.721245368006098</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -13596,10 +13596,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -13655,10 +13655,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -13714,10 +13714,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -13773,10 +13773,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -13835,7 +13835,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -13894,7 +13894,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -14012,7 +14012,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -14068,10 +14068,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -14191,13 +14191,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39233</v>
+        <v>39234</v>
       </c>
       <c r="E2" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F2" t="n">
-        <v>1.452967453766591</v>
+        <v>1.59040392476425</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -14224,7 +14224,7 @@
         <v>872</v>
       </c>
       <c r="F3" t="n">
-        <v>1.035648110465661</v>
+        <v>1.060080035819474</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -14251,7 +14251,7 @@
         <v>1241</v>
       </c>
       <c r="F4" t="n">
-        <v>1.780839858407262</v>
+        <v>1.699027786284118</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -14272,13 +14272,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>40329</v>
+        <v>40330</v>
       </c>
       <c r="E5" t="n">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95606754715828</v>
+        <v>2.063119783207065</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -14305,7 +14305,7 @@
         <v>155</v>
       </c>
       <c r="F6" t="n">
-        <v>0.396726331440019</v>
+        <v>0.3962752564860028</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -14332,7 +14332,7 @@
         <v>525</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7501958888077737</v>
+        <v>0.7490898269509459</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -14359,7 +14359,7 @@
         <v>891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8834968687694736</v>
+        <v>0.8818384572708614</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -14386,7 +14386,7 @@
         <v>1251</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4734353084255067</v>
+        <v>0.4726423531144966</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -14413,7 +14413,7 @@
         <v>1623</v>
       </c>
       <c r="F10" t="n">
-        <v>1.069881196657735</v>
+        <v>1.068282516759643</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -14440,7 +14440,7 @@
         <v>152</v>
       </c>
       <c r="F11" t="n">
-        <v>0.185714644062064</v>
+        <v>0.1855559602056065</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -14467,7 +14467,7 @@
         <v>524</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5255592852404097</v>
+        <v>0.5253445319647628</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -14494,7 +14494,7 @@
         <v>888</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4190014852129973</v>
+        <v>0.41863345280408</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -14521,7 +14521,7 @@
         <v>1247</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2007733146667147</v>
+        <v>0.2005553349361901</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -14548,7 +14548,7 @@
         <v>1620</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5086426973033296</v>
+        <v>0.5080699822291068</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -14575,7 +14575,7 @@
         <v>516</v>
       </c>
       <c r="F16" t="n">
-        <v>4.746558801688144</v>
+        <v>4.740704908643447</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -14602,7 +14602,7 @@
         <v>869</v>
       </c>
       <c r="F17" t="n">
-        <v>3.664920032354661</v>
+        <v>3.662090255496519</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -14629,7 +14629,7 @@
         <v>1245</v>
       </c>
       <c r="F18" t="n">
-        <v>5.895557674254566</v>
+        <v>5.893535275186591</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -14656,7 +14656,7 @@
         <v>1615</v>
       </c>
       <c r="F19" t="n">
-        <v>6.56455537208486</v>
+        <v>6.560749460806697</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -14683,7 +14683,7 @@
         <v>515</v>
       </c>
       <c r="F20" t="n">
-        <v>4.723349358042956</v>
+        <v>4.717278797881314</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -14704,13 +14704,13 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>39588</v>
+        <v>39587</v>
       </c>
       <c r="E21" t="n">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F21" t="n">
-        <v>3.69184252694242</v>
+        <v>3.693243917611453</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -14737,7 +14737,7 @@
         <v>1244</v>
       </c>
       <c r="F22" t="n">
-        <v>5.690849239935225</v>
+        <v>5.688201561257663</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -14764,7 +14764,7 @@
         <v>1615</v>
       </c>
       <c r="F23" t="n">
-        <v>6.364909729632699</v>
+        <v>6.361241692977374</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -14791,7 +14791,7 @@
         <v>516</v>
       </c>
       <c r="F24" t="n">
-        <v>2.264353321509849</v>
+        <v>2.264828887778844</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -14818,7 +14818,7 @@
         <v>870</v>
       </c>
       <c r="F25" t="n">
-        <v>1.335575755497638</v>
+        <v>1.335763180253488</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -14845,7 +14845,7 @@
         <v>1246</v>
       </c>
       <c r="F26" t="n">
-        <v>2.531399444910748</v>
+        <v>2.531053351003606</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -14872,7 +14872,7 @@
         <v>1615</v>
       </c>
       <c r="F27" t="n">
-        <v>2.754612457553724</v>
+        <v>2.754795030250986</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -15007,7 +15007,7 @@
         <v>516</v>
       </c>
       <c r="F32" t="n">
-        <v>1.716664246407372</v>
+        <v>1.714995859497932</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -15034,7 +15034,7 @@
         <v>870</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8948483737751152</v>
+        <v>0.894225364871933</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -15061,7 +15061,7 @@
         <v>1246</v>
       </c>
       <c r="F34" t="n">
-        <v>2.083840367248437</v>
+        <v>2.08323048652182</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -15088,7 +15088,7 @@
         <v>1607</v>
       </c>
       <c r="F35" t="n">
-        <v>1.533247551494053</v>
+        <v>1.532543851357333</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -15115,7 +15115,7 @@
         <v>516</v>
       </c>
       <c r="F36" t="n">
-        <v>1.414404168241781</v>
+        <v>1.419494162932138</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -15136,13 +15136,13 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>39590</v>
+        <v>39592</v>
       </c>
       <c r="E37" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7116041404714432</v>
+        <v>0.8538182746099271</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -15163,13 +15163,13 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>39967</v>
+        <v>39968</v>
       </c>
       <c r="E38" t="n">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="F38" t="n">
-        <v>1.871037340812653</v>
+        <v>1.885459621073518</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -15190,13 +15190,13 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40324</v>
+        <v>40326</v>
       </c>
       <c r="E39" t="n">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9958460880999395</v>
+        <v>1.163204019720089</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -15305,10 +15305,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -15364,10 +15364,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -15423,10 +15423,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -15482,10 +15482,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -15544,7 +15544,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -15603,7 +15603,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -15721,7 +15721,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -15777,10 +15777,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -15906,7 +15906,7 @@
         <v>546</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9026571650649693</v>
+        <v>0.4116683288378173</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -15927,13 +15927,13 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>39599</v>
+        <v>39601</v>
       </c>
       <c r="E3" t="n">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3081961522821224</v>
+        <v>0.3441366330645309</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -15960,7 +15960,7 @@
         <v>1277</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3314115091551242</v>
+        <v>0.3316187980043498</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -15987,7 +15987,7 @@
         <v>1642</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9326738988405417</v>
+        <v>0.9305052371127411</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -16014,7 +16014,7 @@
         <v>206</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7768214662257322</v>
+        <v>0.7793654182114225</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -16041,7 +16041,7 @@
         <v>571</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0873090414736092</v>
+        <v>0.08778219271799376</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -16068,7 +16068,7 @@
         <v>936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06641606168708906</v>
+        <v>0.06669412052137769</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -16095,7 +16095,7 @@
         <v>1301</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3058156607580697</v>
+        <v>0.3058352384204039</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -16122,7 +16122,7 @@
         <v>1667</v>
       </c>
       <c r="F10" t="n">
-        <v>0.265893138027549</v>
+        <v>0.266484113837816</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -16149,7 +16149,7 @@
         <v>151</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05805555468172625</v>
+        <v>0.05790195394748996</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -16176,7 +16176,7 @@
         <v>574</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05674869894808746</v>
+        <v>0.05697495494557391</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -16197,13 +16197,13 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>39272</v>
+        <v>39271</v>
       </c>
       <c r="E13" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3698224223607792</v>
+        <v>0.3699870448035537</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -16230,7 +16230,7 @@
         <v>1249</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04370387404209437</v>
+        <v>0.04362361104797294</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -16257,7 +16257,7 @@
         <v>1670</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5544850573465366</v>
+        <v>0.5550885370891623</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -16284,7 +16284,7 @@
         <v>520</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8660468614297023</v>
+        <v>0.8661328610108242</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -16311,7 +16311,7 @@
         <v>885</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6972830438895675</v>
+        <v>0.6972987100485309</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -16338,7 +16338,7 @@
         <v>1251</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6505413157115351</v>
+        <v>0.6519066628866966</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -16365,7 +16365,7 @@
         <v>1616</v>
       </c>
       <c r="F19" t="n">
-        <v>0.822010443114772</v>
+        <v>0.8222502255955109</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -16392,7 +16392,7 @@
         <v>520</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9544015413673058</v>
+        <v>0.9543269774399623</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -16419,7 +16419,7 @@
         <v>885</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6141972227990747</v>
+        <v>0.6145406188078893</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -16446,7 +16446,7 @@
         <v>1251</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5410924851936985</v>
+        <v>0.5424427457890355</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -16473,7 +16473,7 @@
         <v>1616</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6683199074589317</v>
+        <v>0.6686901583347814</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -16500,7 +16500,7 @@
         <v>544</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4829537796551734</v>
+        <v>0.4827834169541335</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -16527,7 +16527,7 @@
         <v>909</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2080967751112203</v>
+        <v>0.2080178733968683</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -16554,7 +16554,7 @@
         <v>1275</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1671463543308917</v>
+        <v>0.1669424145113187</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -16581,7 +16581,7 @@
         <v>1640</v>
       </c>
       <c r="F27" t="n">
-        <v>0.213214479585327</v>
+        <v>0.2131575958899307</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -16716,7 +16716,7 @@
         <v>549</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3836648289843657</v>
+        <v>0.3840072652541479</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -16743,7 +16743,7 @@
         <v>914</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1008075001090383</v>
+        <v>0.1009131464008148</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -16770,7 +16770,7 @@
         <v>1280</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07677199601013751</v>
+        <v>0.07700194272240882</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -16797,7 +16797,7 @@
         <v>1645</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09851869508503605</v>
+        <v>0.09860789283281314</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -16824,7 +16824,7 @@
         <v>553</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1747194241767409</v>
+        <v>0.1737463733726289</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -16851,7 +16851,7 @@
         <v>918</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1716717734942429</v>
+        <v>0.1716872128094244</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -16878,7 +16878,7 @@
         <v>1284</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1319947810643126</v>
+        <v>0.1319447154097094</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -16905,7 +16905,7 @@
         <v>1649</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1662603762059639</v>
+        <v>0.1693147503129185</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -17014,10 +17014,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -17073,10 +17073,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -17132,10 +17132,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -17191,10 +17191,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -17253,7 +17253,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -17312,7 +17312,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -17430,7 +17430,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -17486,10 +17486,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -17609,13 +17609,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39227</v>
+        <v>39228</v>
       </c>
       <c r="E2" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05469648164141334</v>
+        <v>0.09293334778533806</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -17636,10 +17636,10 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>39544</v>
+        <v>39545</v>
       </c>
       <c r="E3" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -17669,7 +17669,7 @@
         <v>1237</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06756480742542251</v>
+        <v>0.07668776025315413</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -17690,13 +17690,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>40325</v>
+        <v>40328</v>
       </c>
       <c r="E5" t="n">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01560339783950386</v>
+        <v>0.02339380272920616</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -17750,7 +17750,7 @@
         <v>545</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07127255119728118</v>
+        <v>0.0651685161089417</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -17777,7 +17777,7 @@
         <v>883</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001352881897887612</v>
+        <v>0.001361786309738476</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -17885,7 +17885,7 @@
         <v>543</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1663630660537165</v>
+        <v>0.1646677938677403</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -17912,7 +17912,7 @@
         <v>886</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05807124425489776</v>
+        <v>0.05806661672452012</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -17993,7 +17993,7 @@
         <v>510</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9009948941488851</v>
+        <v>0.8998481981066363</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -18020,7 +18020,7 @@
         <v>870</v>
       </c>
       <c r="F17" t="n">
-        <v>1.345141867721982</v>
+        <v>1.344511607325048</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -18047,7 +18047,7 @@
         <v>1233</v>
       </c>
       <c r="F18" t="n">
-        <v>1.632266434313834</v>
+        <v>1.606780473831112</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -18074,7 +18074,7 @@
         <v>1612</v>
       </c>
       <c r="F19" t="n">
-        <v>1.430934503488891</v>
+        <v>1.429645017283126</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -18101,7 +18101,7 @@
         <v>510</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9991933673781531</v>
+        <v>0.9974575691316384</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -18128,7 +18128,7 @@
         <v>866</v>
       </c>
       <c r="F21" t="n">
-        <v>1.109495449869089</v>
+        <v>1.108530023741924</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -18155,7 +18155,7 @@
         <v>1233</v>
       </c>
       <c r="F22" t="n">
-        <v>1.77822545529365</v>
+        <v>1.777753906865907</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -18182,7 +18182,7 @@
         <v>1608</v>
       </c>
       <c r="F23" t="n">
-        <v>1.269137646479901</v>
+        <v>1.267396524404341</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -18209,7 +18209,7 @@
         <v>511</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2482461204935542</v>
+        <v>0.248291199144436</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -18263,7 +18263,7 @@
         <v>1227</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2048477472075511</v>
+        <v>0.2049119190680756</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -18290,7 +18290,7 @@
         <v>1587</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1847335348258188</v>
+        <v>0.1846877196250228</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -18425,7 +18425,7 @@
         <v>512</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02707298753657547</v>
+        <v>0.02700753442529229</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -18479,7 +18479,7 @@
         <v>1231</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2464596997582521</v>
+        <v>0.246362157060792</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -18527,13 +18527,13 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>39228</v>
+        <v>39229</v>
       </c>
       <c r="E36" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06361249542269184</v>
+        <v>0.1733895489429927</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -18554,10 +18554,10 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>39583</v>
+        <v>39584</v>
       </c>
       <c r="E37" t="n">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -18587,7 +18587,7 @@
         <v>1233</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02763845873362872</v>
+        <v>0.03677419053938502</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -18608,10 +18608,10 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40326</v>
+        <v>40327</v>
       </c>
       <c r="E39" t="n">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -18723,10 +18723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -18782,10 +18782,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -18841,10 +18841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -18900,10 +18900,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -18962,7 +18962,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -19021,7 +19021,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -19139,7 +19139,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -19195,10 +19195,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -19318,13 +19318,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39233</v>
+        <v>39234</v>
       </c>
       <c r="E2" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F2" t="n">
-        <v>1.360550337788386</v>
+        <v>1.500965555843695</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -19345,13 +19345,13 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>39592</v>
+        <v>39590</v>
       </c>
       <c r="E3" t="n">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F3" t="n">
-        <v>1.024236752508617</v>
+        <v>1.007027777996632</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -19378,7 +19378,7 @@
         <v>1240</v>
       </c>
       <c r="F4" t="n">
-        <v>1.518956791285001</v>
+        <v>1.503748835104213</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -19399,13 +19399,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>40329</v>
+        <v>40333</v>
       </c>
       <c r="E5" t="n">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="F5" t="n">
-        <v>1.771666035041462</v>
+        <v>2.057150626215494</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -19432,7 +19432,7 @@
         <v>155</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3829519293804791</v>
+        <v>0.3827933089819888</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -19459,7 +19459,7 @@
         <v>524</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6650513926625362</v>
+        <v>0.6638497392235249</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -19486,7 +19486,7 @@
         <v>890</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7869160325559036</v>
+        <v>0.7856140122669817</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -19513,7 +19513,7 @@
         <v>1251</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4542873528561764</v>
+        <v>0.4534941444954605</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -19540,7 +19540,7 @@
         <v>1622</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8775282435704198</v>
+        <v>0.8759095373584537</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -19567,7 +19567,7 @@
         <v>152</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1792940571076674</v>
+        <v>0.1791612909604363</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -19594,7 +19594,7 @@
         <v>547</v>
       </c>
       <c r="F12" t="n">
-        <v>1.659735277387251</v>
+        <v>1.65844346571778</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -19621,7 +19621,7 @@
         <v>887</v>
       </c>
       <c r="F13" t="n">
-        <v>0.36088244024699</v>
+        <v>0.3605804559135543</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -19648,7 +19648,7 @@
         <v>1247</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1886105168091291</v>
+        <v>0.1883351105286757</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -19675,7 +19675,7 @@
         <v>1619</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4397106533841468</v>
+        <v>0.4395613134845177</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -19702,7 +19702,7 @@
         <v>515</v>
       </c>
       <c r="F16" t="n">
-        <v>4.429729578612696</v>
+        <v>4.425254400260595</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -19729,7 +19729,7 @@
         <v>869</v>
       </c>
       <c r="F17" t="n">
-        <v>3.518451622067894</v>
+        <v>3.514629381753482</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -19756,7 +19756,7 @@
         <v>1242</v>
       </c>
       <c r="F18" t="n">
-        <v>5.29072649986214</v>
+        <v>5.291656275017488</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -19783,7 +19783,7 @@
         <v>1615</v>
       </c>
       <c r="F19" t="n">
-        <v>6.203276075386777</v>
+        <v>6.201132103710519</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -19810,7 +19810,7 @@
         <v>515</v>
       </c>
       <c r="F20" t="n">
-        <v>4.439614034942364</v>
+        <v>4.435650172636359</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -19837,7 +19837,7 @@
         <v>869</v>
       </c>
       <c r="F21" t="n">
-        <v>3.524226072995261</v>
+        <v>3.520561767445729</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -19864,7 +19864,7 @@
         <v>1241</v>
       </c>
       <c r="F22" t="n">
-        <v>5.101294034687982</v>
+        <v>5.10068468019271</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -19891,7 +19891,7 @@
         <v>1615</v>
       </c>
       <c r="F23" t="n">
-        <v>5.973979494235084</v>
+        <v>5.970997237756102</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -19918,7 +19918,7 @@
         <v>516</v>
       </c>
       <c r="F24" t="n">
-        <v>2.107317460248111</v>
+        <v>2.107689218477688</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -19945,7 +19945,7 @@
         <v>870</v>
       </c>
       <c r="F25" t="n">
-        <v>1.259414153642206</v>
+        <v>1.25958887660979</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -19972,7 +19972,7 @@
         <v>1243</v>
       </c>
       <c r="F26" t="n">
-        <v>2.234539253486375</v>
+        <v>2.234476794090571</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -19999,7 +19999,7 @@
         <v>1614</v>
       </c>
       <c r="F27" t="n">
-        <v>2.578203472435716</v>
+        <v>2.5784798510357</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -20134,7 +20134,7 @@
         <v>515</v>
       </c>
       <c r="F32" t="n">
-        <v>1.546694771325088</v>
+        <v>1.545545908907801</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -20161,7 +20161,7 @@
         <v>869</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7918078079010181</v>
+        <v>0.7910831254532585</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -20182,13 +20182,13 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>39963</v>
+        <v>39962</v>
       </c>
       <c r="E34" t="n">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F34" t="n">
-        <v>1.727135779821922</v>
+        <v>1.730287604600003</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -20215,7 +20215,7 @@
         <v>1614</v>
       </c>
       <c r="F35" t="n">
-        <v>1.915956497545307</v>
+        <v>1.914916474106759</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -20236,13 +20236,13 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>39234</v>
+        <v>39235</v>
       </c>
       <c r="E36" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F36" t="n">
-        <v>1.304134483011453</v>
+        <v>1.313257970758505</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -20263,13 +20263,13 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>39586</v>
+        <v>39590</v>
       </c>
       <c r="E37" t="n">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4907037253369479</v>
+        <v>0.673318236433417</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -20296,7 +20296,7 @@
         <v>1246</v>
       </c>
       <c r="F38" t="n">
-        <v>1.53003973502714</v>
+        <v>1.544792231055596</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -20317,13 +20317,13 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40321</v>
+        <v>40322</v>
       </c>
       <c r="E39" t="n">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7340544144586045</v>
+        <v>0.8766236768866071</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -20432,10 +20432,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -20491,10 +20491,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -20550,10 +20550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -20609,10 +20609,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -20671,7 +20671,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -20730,7 +20730,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -20848,7 +20848,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -20904,10 +20904,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -21027,13 +21027,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39233</v>
+        <v>39235</v>
       </c>
       <c r="E2" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F2" t="n">
-        <v>1.449969552620968</v>
+        <v>1.655787685605543</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -21060,7 +21060,7 @@
         <v>872</v>
       </c>
       <c r="F3" t="n">
-        <v>1.029081837076944</v>
+        <v>1.064859025674162</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -21081,13 +21081,13 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>39960</v>
+        <v>39959</v>
       </c>
       <c r="E4" t="n">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F4" t="n">
-        <v>1.644497139941917</v>
+        <v>1.632978209524119</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -21108,13 +21108,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>40329</v>
+        <v>40333</v>
       </c>
       <c r="E5" t="n">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="F5" t="n">
-        <v>1.798113599974046</v>
+        <v>2.191550213500289</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -21141,7 +21141,7 @@
         <v>156</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4505755977288037</v>
+        <v>0.4500196985061291</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -21168,7 +21168,7 @@
         <v>548</v>
       </c>
       <c r="F7" t="n">
-        <v>2.16046831312069</v>
+        <v>2.15844854122128</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -21195,7 +21195,7 @@
         <v>892</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9564950486567818</v>
+        <v>0.9550414248456359</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -21222,7 +21222,7 @@
         <v>1252</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5288349296253646</v>
+        <v>0.5281564598952864</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -21249,7 +21249,7 @@
         <v>1623</v>
       </c>
       <c r="F10" t="n">
-        <v>0.981312489060807</v>
+        <v>0.9816964610466505</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -21276,7 +21276,7 @@
         <v>153</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2166688104089078</v>
+        <v>0.2165441102966535</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -21303,7 +21303,7 @@
         <v>547</v>
       </c>
       <c r="F12" t="n">
-        <v>1.758003747336551</v>
+        <v>1.756939826864034</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -21330,7 +21330,7 @@
         <v>889</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4697058665560706</v>
+        <v>0.469175401615724</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -21357,7 +21357,7 @@
         <v>1248</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2492999402261121</v>
+        <v>0.249026365521087</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -21384,7 +21384,7 @@
         <v>1620</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5096589360738329</v>
+        <v>0.5092887789240876</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -21411,7 +21411,7 @@
         <v>517</v>
       </c>
       <c r="F16" t="n">
-        <v>4.899880126621035</v>
+        <v>4.893929556105913</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -21438,7 +21438,7 @@
         <v>869</v>
       </c>
       <c r="F17" t="n">
-        <v>3.680521703170231</v>
+        <v>3.677211200130681</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -21465,7 +21465,7 @@
         <v>1242</v>
       </c>
       <c r="F18" t="n">
-        <v>5.307888375803016</v>
+        <v>5.307202485711294</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -21492,7 +21492,7 @@
         <v>1615</v>
       </c>
       <c r="F19" t="n">
-        <v>6.276056886089737</v>
+        <v>6.275450583848732</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -21519,7 +21519,7 @@
         <v>517</v>
       </c>
       <c r="F20" t="n">
-        <v>4.892470797249009</v>
+        <v>4.88944839146627</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -21546,7 +21546,7 @@
         <v>869</v>
       </c>
       <c r="F21" t="n">
-        <v>3.695423340793452</v>
+        <v>3.693253133027923</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -21573,7 +21573,7 @@
         <v>1241</v>
       </c>
       <c r="F22" t="n">
-        <v>5.129549649896272</v>
+        <v>5.129187205022872</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -21600,7 +21600,7 @@
         <v>1615</v>
       </c>
       <c r="F23" t="n">
-        <v>6.074954514562005</v>
+        <v>6.074406788007495</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -21627,7 +21627,7 @@
         <v>516</v>
       </c>
       <c r="F24" t="n">
-        <v>2.240837553218501</v>
+        <v>2.241114671935556</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -21654,7 +21654,7 @@
         <v>870</v>
       </c>
       <c r="F25" t="n">
-        <v>1.309272168550137</v>
+        <v>1.309414194975028</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -21681,7 +21681,7 @@
         <v>1243</v>
       </c>
       <c r="F26" t="n">
-        <v>2.247981705368103</v>
+        <v>2.247887590452685</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -21708,7 +21708,7 @@
         <v>1615</v>
       </c>
       <c r="F27" t="n">
-        <v>2.619890879518463</v>
+        <v>2.619987397816157</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -21843,7 +21843,7 @@
         <v>516</v>
       </c>
       <c r="F32" t="n">
-        <v>1.68048673889573</v>
+        <v>1.679260116444597</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -21870,7 +21870,7 @@
         <v>870</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8918113730607273</v>
+        <v>0.8912679348485657</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -21897,7 +21897,7 @@
         <v>1244</v>
       </c>
       <c r="F34" t="n">
-        <v>1.749520959375438</v>
+        <v>1.7490838475173</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -21924,7 +21924,7 @@
         <v>1614</v>
       </c>
       <c r="F35" t="n">
-        <v>2.034400435413502</v>
+        <v>2.033877698310102</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -21951,7 +21951,7 @@
         <v>516</v>
       </c>
       <c r="F36" t="n">
-        <v>1.343356574356011</v>
+        <v>1.373253460499609</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -21972,13 +21972,13 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>39589</v>
+        <v>39590</v>
       </c>
       <c r="E37" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6075947036040009</v>
+        <v>0.6932177009475987</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -22005,7 +22005,7 @@
         <v>1246</v>
       </c>
       <c r="F38" t="n">
-        <v>1.555438364781442</v>
+        <v>1.646310922277041</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -22026,13 +22026,13 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40322</v>
+        <v>40333</v>
       </c>
       <c r="E39" t="n">
-        <v>1603</v>
+        <v>1614</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8806102415377148</v>
+        <v>1.64043764892181</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -22141,10 +22141,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -22200,10 +22200,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -22259,10 +22259,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -22380,7 +22380,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -22439,7 +22439,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -22557,7 +22557,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -22613,10 +22613,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
@@ -22736,13 +22736,13 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>39265</v>
+        <v>39256</v>
       </c>
       <c r="E2" t="n">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9580242128561515</v>
+        <v>1.594987688783563</v>
       </c>
       <c r="G2" t="n">
         <v>90</v>
@@ -22763,13 +22763,13 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>39618</v>
+        <v>39617</v>
       </c>
       <c r="E3" t="n">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6053508144031171</v>
+        <v>0.8909780261685398</v>
       </c>
       <c r="G3" t="n">
         <v>90</v>
@@ -22796,7 +22796,7 @@
         <v>1250</v>
       </c>
       <c r="F4" t="n">
-        <v>1.060965295483203</v>
+        <v>1.079132994456412</v>
       </c>
       <c r="G4" t="n">
         <v>90</v>
@@ -22823,7 +22823,7 @@
         <v>1642</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6709955611822453</v>
+        <v>1.110389635461128</v>
       </c>
       <c r="G5" t="n">
         <v>90</v>
@@ -22850,7 +22850,7 @@
         <v>167</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01574021275549783</v>
+        <v>0.01356462173616195</v>
       </c>
       <c r="G6" t="n">
         <v>180</v>
@@ -22877,7 +22877,7 @@
         <v>549</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6344387811607094</v>
+        <v>0.6215886210961458</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
@@ -22904,7 +22904,7 @@
         <v>904</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08705097685394841</v>
+        <v>0.09225553852756672</v>
       </c>
       <c r="G8" t="n">
         <v>180</v>
@@ -22931,7 +22931,7 @@
         <v>1268</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2210296205758332</v>
+        <v>0.2236333915470625</v>
       </c>
       <c r="G9" t="n">
         <v>180</v>
@@ -22958,7 +22958,7 @@
         <v>1618</v>
       </c>
       <c r="F10" t="n">
-        <v>0.138757774769291</v>
+        <v>0.1459805140618066</v>
       </c>
       <c r="G10" t="n">
         <v>180</v>
@@ -22985,7 +22985,7 @@
         <v>167</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04137732523559118</v>
+        <v>0.04122512335685957</v>
       </c>
       <c r="G11" t="n">
         <v>120</v>
@@ -23012,7 +23012,7 @@
         <v>548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8115693768655899</v>
+        <v>0.8119304575542488</v>
       </c>
       <c r="G12" t="n">
         <v>120</v>
@@ -23039,7 +23039,7 @@
         <v>902</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7033330246188819</v>
+        <v>0.7025933716283734</v>
       </c>
       <c r="G13" t="n">
         <v>120</v>
@@ -23066,7 +23066,7 @@
         <v>1266</v>
       </c>
       <c r="F14" t="n">
-        <v>0.56087627230283</v>
+        <v>0.5601077188967429</v>
       </c>
       <c r="G14" t="n">
         <v>120</v>
@@ -23093,7 +23093,7 @@
         <v>1615</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1493001708511588</v>
+        <v>0.1485788934518806</v>
       </c>
       <c r="G15" t="n">
         <v>120</v>
@@ -23120,7 +23120,7 @@
         <v>520</v>
       </c>
       <c r="F16" t="n">
-        <v>3.909187057841293</v>
+        <v>3.906396243060852</v>
       </c>
       <c r="G16" t="n">
         <v>180</v>
@@ -23147,7 +23147,7 @@
         <v>885</v>
       </c>
       <c r="F17" t="n">
-        <v>3.455078368201384</v>
+        <v>3.452747551119832</v>
       </c>
       <c r="G17" t="n">
         <v>180</v>
@@ -23174,7 +23174,7 @@
         <v>1251</v>
       </c>
       <c r="F18" t="n">
-        <v>3.835704202522572</v>
+        <v>3.838278642365181</v>
       </c>
       <c r="G18" t="n">
         <v>180</v>
@@ -23201,7 +23201,7 @@
         <v>1616</v>
       </c>
       <c r="F19" t="n">
-        <v>4.695549771659167</v>
+        <v>4.682703130727425</v>
       </c>
       <c r="G19" t="n">
         <v>180</v>
@@ -23228,7 +23228,7 @@
         <v>520</v>
       </c>
       <c r="F20" t="n">
-        <v>3.916963305099795</v>
+        <v>3.913112003432456</v>
       </c>
       <c r="G20" t="n">
         <v>180</v>
@@ -23255,7 +23255,7 @@
         <v>885</v>
       </c>
       <c r="F21" t="n">
-        <v>2.414393038309719</v>
+        <v>2.413297360597118</v>
       </c>
       <c r="G21" t="n">
         <v>180</v>
@@ -23282,7 +23282,7 @@
         <v>1251</v>
       </c>
       <c r="F22" t="n">
-        <v>3.799205167958981</v>
+        <v>3.790772889322641</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -23309,7 +23309,7 @@
         <v>1616</v>
       </c>
       <c r="F23" t="n">
-        <v>4.541631045814361</v>
+        <v>4.549985792554882</v>
       </c>
       <c r="G23" t="n">
         <v>180</v>
@@ -23336,7 +23336,7 @@
         <v>537</v>
       </c>
       <c r="F24" t="n">
-        <v>1.169217018540433</v>
+        <v>1.168700123923486</v>
       </c>
       <c r="G24" t="n">
         <v>180</v>
@@ -23363,7 +23363,7 @@
         <v>897</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4261264215039379</v>
+        <v>0.4265870456801139</v>
       </c>
       <c r="G25" t="n">
         <v>180</v>
@@ -23390,7 +23390,7 @@
         <v>1250</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5729842653675754</v>
+        <v>0.5579636477414922</v>
       </c>
       <c r="G26" t="n">
         <v>180</v>
@@ -23417,7 +23417,7 @@
         <v>1640</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8291418667737581</v>
+        <v>0.8302374940459583</v>
       </c>
       <c r="G27" t="n">
         <v>180</v>
@@ -23552,7 +23552,7 @@
         <v>537</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8418941030700396</v>
+        <v>0.8355449350266937</v>
       </c>
       <c r="G32" t="n">
         <v>180</v>
@@ -23579,7 +23579,7 @@
         <v>866</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3800444724014367</v>
+        <v>0.3836484972208696</v>
       </c>
       <c r="G33" t="n">
         <v>180</v>
@@ -23606,7 +23606,7 @@
         <v>1250</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2771231023759025</v>
+        <v>0.271290583304046</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -23633,7 +23633,7 @@
         <v>1645</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4125083524247474</v>
+        <v>0.3457007532094552</v>
       </c>
       <c r="G35" t="n">
         <v>180</v>
@@ -23654,13 +23654,13 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>39259</v>
+        <v>39256</v>
       </c>
       <c r="E36" t="n">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4791173133357783</v>
+        <v>0.5702585698477574</v>
       </c>
       <c r="G36" t="n">
         <v>180</v>
@@ -23681,13 +23681,13 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>39619</v>
+        <v>39612</v>
       </c>
       <c r="E37" t="n">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09704304635694834</v>
+        <v>0.2762598760029641</v>
       </c>
       <c r="G37" t="n">
         <v>180</v>
@@ -23714,7 +23714,7 @@
         <v>1250</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1742531671616375</v>
+        <v>0.2597968305891687</v>
       </c>
       <c r="G38" t="n">
         <v>180</v>
@@ -23735,13 +23735,13 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40358</v>
+        <v>40360</v>
       </c>
       <c r="E39" t="n">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09025567259138381</v>
+        <v>0.2407625226652372</v>
       </c>
       <c r="G39" t="n">
         <v>180</v>
@@ -23850,10 +23850,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.66111</v>
+        <v>31.68056</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.60972</v>
+        <v>-7.59583</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>38718</v>
@@ -23909,10 +23909,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>38353</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.66806</v>
+        <v>31.68056</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.59444</v>
+        <v>-7.59583</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>38353</v>
@@ -24027,10 +24027,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.67778</v>
+        <v>31.68056</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>38718</v>
@@ -24089,7 +24089,7 @@
         <v>31.68056</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.58889</v>
+        <v>-7.59583</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>38718</v>
@@ -24148,7 +24148,7 @@
         <v>31.68056</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.59861</v>
+        <v>-7.59583</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>38718</v>
@@ -24266,7 +24266,7 @@
         <v>31.68056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.59167</v>
+        <v>-7.59583</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>38718</v>
@@ -24322,10 +24322,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.66667</v>
+        <v>31.68056</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.61111</v>
+        <v>-7.59583</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>38718</v>
